--- a/data/trans_dic/P39A5_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.8863887729328839</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8794729392541842</v>
+        <v>0.8794729392541841</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8094924090816233</v>
+        <v>0.8106786970259459</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.832457084830234</v>
+        <v>0.8308642241892331</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8423591697856181</v>
+        <v>0.8417945895661485</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9206505340178069</v>
+        <v>0.9166340374098068</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9292010710399405</v>
+        <v>0.9266916914187368</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9097937477088693</v>
+        <v>0.9152345128587785</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.8685723591254861</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8563893901729434</v>
+        <v>0.8563893901729432</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8623251118810787</v>
+        <v>0.8623251118810786</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8245810182259669</v>
+        <v>0.8241024408637985</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.819065046496207</v>
+        <v>0.8192741438969204</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8349022419333196</v>
+        <v>0.8358574046032227</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9048233291379866</v>
+        <v>0.9042541980755365</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.88949169009651</v>
+        <v>0.8852811258324474</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8894074228320009</v>
+        <v>0.8885611416158625</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8668895617543436</v>
+        <v>0.8668895617543438</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.8567524082712997</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8332359788485929</v>
+        <v>0.8377901520961788</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8337023325983296</v>
+        <v>0.8346784879525281</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8412393346773328</v>
+        <v>0.841073783963173</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8932065137952151</v>
+        <v>0.894132918178334</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8808529787033648</v>
+        <v>0.8812701987622951</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8795054852515416</v>
+        <v>0.878656001849537</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8813480208691025</v>
+        <v>0.8813480208691027</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.8515385536013687</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.855052622293078</v>
+        <v>0.8559808298336385</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8290013716520772</v>
+        <v>0.8304598411175672</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8462357599129299</v>
+        <v>0.849019105540702</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9048905870257068</v>
+        <v>0.9052292488924079</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8708796163577368</v>
+        <v>0.8731442800621602</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8804144614465704</v>
+        <v>0.8809427984017478</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.8593347746933138</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8763800228804502</v>
+        <v>0.8763800228804504</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8678779614087909</v>
+        <v>0.867877961408791</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8277314168894514</v>
+        <v>0.8301944017786332</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8541261043696763</v>
+        <v>0.8555247089059373</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8489744283760099</v>
+        <v>0.8470416372280912</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8827442773545523</v>
+        <v>0.8841964636590891</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8969174060410924</v>
+        <v>0.8958760836412726</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8843102515602898</v>
+        <v>0.8848830202004548</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.8733157705329769</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.877281040372732</v>
+        <v>0.8772810403727319</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.851128646969733</v>
+        <v>0.8494193865528366</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.847081182340525</v>
+        <v>0.8480101653868667</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8570263882306426</v>
+        <v>0.8578114016418048</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9106270484521221</v>
+        <v>0.9058180220183594</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8971539305499396</v>
+        <v>0.8958754887163011</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8943902852770821</v>
+        <v>0.8951179970645624</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.8318228306885961</v>
+        <v>0.8318228306885959</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.8240231357121299</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7901141490129052</v>
+        <v>0.7913389920827841</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7943327259396273</v>
+        <v>0.7930253396357929</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8026932542505765</v>
+        <v>0.8034587263144559</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8662387893653162</v>
+        <v>0.8664265143078509</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8536216270816358</v>
+        <v>0.8530821196578429</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8496599455388173</v>
+        <v>0.8502603688774466</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.8681568911304369</v>
+        <v>0.868156891130437</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.8600637469322802</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8539311461017167</v>
+        <v>0.8552229761276158</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8489201348173728</v>
+        <v>0.8495084120068332</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.855163080192175</v>
+        <v>0.8561730892647238</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8791863933439539</v>
+        <v>0.8809318385627999</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8692471783533861</v>
+        <v>0.8695512092903062</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8716839195108245</v>
+        <v>0.8720133636964554</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>286398</v>
+        <v>286817</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>269691</v>
+        <v>269175</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>570925</v>
+        <v>570542</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>325725</v>
+        <v>324304</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>301033</v>
+        <v>300220</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>616630</v>
+        <v>620318</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>361071</v>
+        <v>360861</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>377479</v>
+        <v>377576</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>750368</v>
+        <v>751227</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>396208</v>
+        <v>395958</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>409936</v>
+        <v>407996</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>799355</v>
+        <v>798594</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>480899</v>
+        <v>483527</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>491403</v>
+        <v>491979</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>981364</v>
+        <v>981171</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>515511</v>
+        <v>516045</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>519195</v>
+        <v>519441</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1026004</v>
+        <v>1025013</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>555740</v>
+        <v>556343</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>581355</v>
+        <v>582378</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1143451</v>
+        <v>1147212</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>588132</v>
+        <v>588352</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>610723</v>
+        <v>612312</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1189634</v>
+        <v>1190348</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>466728</v>
+        <v>468117</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>483940</v>
+        <v>484733</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>959728</v>
+        <v>957543</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>497748</v>
+        <v>498567</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>508185</v>
+        <v>507595</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>999674</v>
+        <v>1000321</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>314966</v>
+        <v>314334</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>336755</v>
+        <v>337124</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>657857</v>
+        <v>658459</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>336984</v>
+        <v>335204</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>356661</v>
+        <v>356153</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>686538</v>
+        <v>687096</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>212359</v>
+        <v>212688</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>295728</v>
+        <v>295241</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>514580</v>
+        <v>515071</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>232819</v>
+        <v>232869</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>317801</v>
+        <v>317600</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>544689</v>
+        <v>545074</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2750912</v>
+        <v>2755073</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2896487</v>
+        <v>2898495</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>5672669</v>
+        <v>5679369</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2832271</v>
+        <v>2837894</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2965843</v>
+        <v>2966880</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>5782259</v>
+        <v>5784444</v>
       </c>
     </row>
     <row r="36">
